--- a/Team34/Tests34/system_test_calls/system_test_calls_pairwise_cases.xlsx
+++ b/Team34/Tests34/system_test_calls/system_test_calls_pairwise_cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nauma\OneDrive\Desktop\NUS_MODULES\CS3203\spa_system_test_cases\Team34\Tests34\system_test_calls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nauma\OneDrive\Desktop\NUS_MODULES\CS3203\system_testing_final_folder\Team34\Tests34\system_test_calls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB56E3A-C96E-4C90-99C4-A0A830FC02A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F105868B-AF06-4BB4-9165-EE3B2DD2B2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{E82867B0-7B47-4485-8A2B-ABCF81E6675B}"/>
+    <workbookView minimized="1" xWindow="4782" yWindow="2892" windowWidth="17352" windowHeight="8946" xr2:uid="{E82867B0-7B47-4485-8A2B-ABCF81E6675B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="36">
-  <si>
-    <t>Factors</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="34">
   <si>
     <t>Calls Parameter One</t>
   </si>
@@ -134,23 +131,20 @@
     <t>synoym</t>
   </si>
   <si>
-    <t>6 - failed</t>
-  </si>
-  <si>
-    <t>7 - failed</t>
-  </si>
-  <si>
     <t>SUCCESS/FAIL</t>
   </si>
   <si>
-    <t>11 - failed</t>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>FAILURE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,13 +152,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -179,9 +191,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3309B096-3DFD-4095-B2EB-061E7DD1EA56}">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A2:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -514,839 +528,855 @@
     <col min="8" max="8" width="17.7890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
       <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>14</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>15</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>17</v>
-      </c>
-      <c r="K5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13">
-        <v>4</v>
+        <v>29</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14">
-        <v>5</v>
+        <v>29</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17">
-        <v>8</v>
+      <c r="F17" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18">
-        <v>9</v>
+        <v>29</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21">
-        <v>12</v>
+      <c r="F21" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22">
-        <v>13</v>
+        <v>29</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" t="s">
         <v>25</v>
       </c>
-      <c r="B38" t="s">
-        <v>26</v>
-      </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" t="s">
         <v>28</v>
-      </c>
-      <c r="C49" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
